--- a/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2ClockEnablePowerReport.xlsx
+++ b/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2ClockEnablePowerReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Utilization</t>
   </si>
@@ -50,37 +50,31 @@
     <t>myclk</t>
   </si>
   <si>
+    <t xml:space="preserve">FF LUT </t>
+  </si>
+  <si>
+    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_CS_fsm_state6</t>
+  </si>
+  <si>
     <t xml:space="preserve">DSP FF </t>
   </si>
   <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_CS_fsm_state8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF LUT </t>
-  </si>
-  <si>
     <t>firConvolutionLoopUnrollingFactor2_IP/U0/ce0</t>
   </si>
   <si>
     <t xml:space="preserve">DSP LUT </t>
   </si>
   <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_CS_fsm_state6</t>
-  </si>
-  <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_NS_fsm1</t>
+    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_CS_fsm_state5</t>
+  </si>
+  <si>
+    <t>firConvolutionLoopUnrollingFactor2_IP/U0/i_2_reg_2800</t>
   </si>
   <si>
     <t xml:space="preserve">FF </t>
   </si>
   <si>
     <t>firConvolutionLoopUnrollingFactor2_IP/U0/ce02</t>
-  </si>
-  <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/ap_NS_fsm[4]</t>
-  </si>
-  <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/i_3_reg_3450</t>
   </si>
 </sst>
 </file>
@@ -202,7 +196,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>1.3704053708352149E-4</v>
+        <v>9.638717165216804E-5</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -228,22 +222,22 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>3.7609341234201565E-5</v>
+        <v>3.548925451468676E-5</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>26.046512603759766</v>
+        <v>36.417911529541016</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>13.023256301879883</v>
+        <v>18.208955764770508</v>
       </c>
       <c r="E3" t="n" s="7">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="F3" t="n" s="7">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>11</v>
@@ -254,22 +248,22 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>3.7609341234201565E-5</v>
+        <v>2.0157314793323167E-5</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>26.046512603759766</v>
+        <v>36.417911529541016</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>13.023256301879883</v>
+        <v>18.208955764770508</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n" s="7">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>11</v>
@@ -280,22 +274,22 @@
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" t="n" s="5">
-        <v>3.6725992686115205E-5</v>
+        <v>1.88095527846599E-5</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>15</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>31.627906799316406</v>
+        <v>39.850746154785156</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>15.81395435333252</v>
+        <v>19.99140167236328</v>
       </c>
       <c r="E5" t="n" s="7">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n" s="7">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>11</v>
@@ -306,48 +300,48 @@
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" t="n" s="5">
-        <v>7.352709872066043E-6</v>
+        <v>1.4020895832800306E-5</v>
       </c>
       <c r="B6" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>26.279071807861328</v>
+        <v>36.417911529541016</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>13.24311637878418</v>
+        <v>18.208955764770508</v>
       </c>
       <c r="E6" t="n" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n" s="7">
         <v>5.0</v>
       </c>
-      <c r="F6" t="n" s="7">
-        <v>0.0</v>
-      </c>
       <c r="G6" t="s" s="4">
         <v>11</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" t="n" s="5">
-        <v>7.254945103341015E-6</v>
+        <v>6.3626866904087365E-6</v>
       </c>
       <c r="B7" t="s" s="4">
         <v>18</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>5.116279125213623</v>
+        <v>36.56716537475586</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>2.5581400394439697</v>
+        <v>18.33510398864746</v>
       </c>
       <c r="E7" t="n" s="7">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="F7" t="n" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="s" s="4">
         <v>11</v>
@@ -358,79 +352,27 @@
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" t="n" s="5">
-        <v>6.6215143306180835E-6</v>
+        <v>1.5474626025024918E-6</v>
       </c>
       <c r="B8" t="s" s="4">
         <v>20</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>39.069766998291016</v>
+        <v>21.492536544799805</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>13.953489303588867</v>
+        <v>8.95522403717041</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="s" s="4">
         <v>11</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" outlineLevel="1">
-      <c r="A9" t="n" s="5">
-        <v>2.103473889292218E-6</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C9" t="n" s="2">
-        <v>31.627906799316406</v>
-      </c>
-      <c r="D9" t="n" s="2">
-        <v>15.81395435333252</v>
-      </c>
-      <c r="E9" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F9" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
-      <c r="A10" t="n" s="5">
-        <v>1.7632061144468025E-6</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n" s="2">
-        <v>26.511627197265625</v>
-      </c>
-      <c r="D10" t="n" s="2">
-        <v>13.255813598632812</v>
-      </c>
-      <c r="E10" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F10" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s" s="4">
         <v>19</v>
       </c>
     </row>
